--- a/assets/documents/Budget.xlsx
+++ b/assets/documents/Budget.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18f720bfd0597c4d/Documents/GitHub/a7call.github.io/assets/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{008B7C3B-C261-4E4D-92D1-D050E86F1301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{008B7C3B-C261-4E4D-92D1-D050E86F1301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39ED7B72-74C6-41CD-ADCA-560C87784B87}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Préproduction</t>
   </si>
@@ -61,13 +61,52 @@
   </si>
   <si>
     <t>Marketing</t>
+  </si>
+  <si>
+    <t>Game Designer</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>Lead Artist (concept + 3D assets)</t>
+  </si>
+  <si>
+    <t>Artist (3D assets)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead programmer </t>
+  </si>
+  <si>
+    <t>Lead Game Designer</t>
+  </si>
+  <si>
+    <t>Prestation (communication + sounds)</t>
+  </si>
+  <si>
+    <t>Conception 0,5-1 mois</t>
+  </si>
+  <si>
+    <t>Préproduction 3-3,5 mois</t>
+  </si>
+  <si>
+    <t>Production 24 mois</t>
+  </si>
+  <si>
+    <t>Post prod</t>
+  </si>
+  <si>
+    <t>Préprod + prod + post prod</t>
+  </si>
+  <si>
+    <t>Post prod 6 mois</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +114,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,11 +172,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,24 +496,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -451,10 +534,13 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -479,40 +565,177 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>F2+G2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>G2+H2+F2</f>
         <v>48000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <f>B3*C3</f>
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="E3">
         <v>4000</v>
       </c>
       <c r="F3">
         <f>D3*E3</f>
-        <v>960000</v>
+        <v>576000</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>50000</v>
+      </c>
+      <c r="I3">
+        <f>G3+H3+F3</f>
+        <v>626000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <f>B4*C4</f>
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>4000</v>
+      </c>
+      <c r="F4">
+        <f>D4*E4</f>
+        <v>96000</v>
+      </c>
+      <c r="G4">
         <v>600000</v>
       </c>
-      <c r="H3">
-        <f>F3+G3</f>
-        <v>1560000</v>
-      </c>
+      <c r="H4">
+        <v>50000</v>
+      </c>
+      <c r="I4">
+        <f>G4+H4+F4</f>
+        <v>746000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f>B2+B3+B4</f>
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <f>C2+C3+C4</f>
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <f>D2+D3+D4</f>
+        <v>184</v>
+      </c>
+      <c r="E5">
+        <f>E2+E3+E4</f>
+        <v>11000</v>
+      </c>
+      <c r="F5">
+        <f>F2+F3+F4</f>
+        <v>720000</v>
+      </c>
+      <c r="G5">
+        <f>G2+G3+G4</f>
+        <v>600000</v>
+      </c>
+      <c r="H5">
+        <f>H2+H3+H4</f>
+        <v>100000</v>
+      </c>
+      <c r="I5" s="7">
+        <f>I2+I3+I4</f>
+        <v>1420000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/documents/Budget.xlsx
+++ b/assets/documents/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18f720bfd0597c4d/Documents/GitHub/a7call.github.io/assets/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{008B7C3B-C261-4E4D-92D1-D050E86F1301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39ED7B72-74C6-41CD-ADCA-560C87784B87}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{008B7C3B-C261-4E4D-92D1-D050E86F1301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F29DEF92-5351-4B69-A9DB-70F40EC29880}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,11 +555,11 @@
         <v>16</v>
       </c>
       <c r="E2" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F2">
         <f>D2*E2</f>
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -569,7 +569,7 @@
       </c>
       <c r="I2">
         <f>G2+H2+F2</f>
-        <v>48000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -587,11 +587,11 @@
         <v>144</v>
       </c>
       <c r="E3">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="F3">
         <f>D3*E3</f>
-        <v>576000</v>
+        <v>504000</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -601,7 +601,7 @@
       </c>
       <c r="I3">
         <f>G3+H3+F3</f>
-        <v>626000</v>
+        <v>554000</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -619,21 +619,21 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="F4">
         <f>D4*E4</f>
-        <v>96000</v>
+        <v>84000</v>
       </c>
       <c r="G4">
-        <v>600000</v>
+        <v>350000</v>
       </c>
       <c r="H4">
         <v>50000</v>
       </c>
       <c r="I4">
         <f>G4+H4+F4</f>
-        <v>746000</v>
+        <v>484000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -641,36 +641,32 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <f>B2+B3+B4</f>
+        <f t="shared" ref="B5:I5" si="0">B2+B3+B4</f>
         <v>34</v>
       </c>
       <c r="C5">
-        <f>C2+C3+C4</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D5">
-        <f>D2+D3+D4</f>
+        <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="E5">
-        <f>E2+E3+E4</f>
-        <v>11000</v>
-      </c>
       <c r="F5">
-        <f>F2+F3+F4</f>
-        <v>720000</v>
+        <f t="shared" si="0"/>
+        <v>620000</v>
       </c>
       <c r="G5">
-        <f>G2+G3+G4</f>
-        <v>600000</v>
+        <f t="shared" si="0"/>
+        <v>350000</v>
       </c>
       <c r="H5">
-        <f>H2+H3+H4</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
       <c r="I5" s="7">
-        <f>I2+I3+I4</f>
-        <v>1420000</v>
+        <f t="shared" si="0"/>
+        <v>1070000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
